--- a/medicine/Enfance/Erik_Poulet-Reney/Erik_Poulet-Reney.xlsx
+++ b/medicine/Enfance/Erik_Poulet-Reney/Erik_Poulet-Reney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erik Poulet-Reney, né le 15 juin 1959, est un auteur de littérature jeunesse et jeune adulte, poète et chroniqueur littéraire radio. 
-Ses ouvrages sont connus pour aborder les thèmes de la différence et les secrets de famille[1],[2],[3]. 
-Il est notamment le premier des écrivains français à avoir publié un roman pour adolescents sur la déportation des homosexuels durant la Seconde Guerre mondiale[4],[5],[6].  
+Ses ouvrages sont connus pour aborder les thèmes de la différence et les secrets de famille. 
+Il est notamment le premier des écrivains français à avoir publié un roman pour adolescents sur la déportation des homosexuels durant la Seconde Guerre mondiale.  
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erik Poulet-Reney est né en Bourgogne[7]. Il a commencé à écrire dès l’âge de quinze ans[8],[9]. Il a d’abord écrit pour les adultes : romans, nouvelles, policières, avant de se consacrer à la littérature pour la jeunesse. Il publie son premier roman pour adolescents en 1999 aux Éditions Thierry Magnier[10],[11]. En 1984 jusqu’à sa disparition, il se lie d’amitié avec la romancière Andrée Chedid[12]. Ses conseils autour de l'écriture lui seront précieux[8]. En 1991, Erik obtient le prix de la ville de Béziers pour Nijinsky, l’ange de papier, portant sur le thème de la folie du célèbre danseur des Ballets russes[8]. Ce prix lui est remis des mains de l’écrivain Marie Rouanet, présidente du jury littéraire à Béziers[8].  Le texte est illustré par Jean Marais de trois originaux et mis en scène au théâtre rue Thérèse à Paris, par S. Pothier et la Compagnie du Mascaron[8]. 
-Erik Poulet-Reney vit en Bourgogne[13],[14], se passionne pour l’Inde et le Maroc[9]. Il participe à des conférences et rencontres dans des établissements scolaires en France[15] et parfois au Maroc[16],[17],[18].  Il anime aussi depuis 1999 une chronique littéraire à la radio [13], et est employé à la bibliothèque municipale d'Auxerre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erik Poulet-Reney est né en Bourgogne. Il a commencé à écrire dès l’âge de quinze ans,. Il a d’abord écrit pour les adultes : romans, nouvelles, policières, avant de se consacrer à la littérature pour la jeunesse. Il publie son premier roman pour adolescents en 1999 aux Éditions Thierry Magnier,. En 1984 jusqu’à sa disparition, il se lie d’amitié avec la romancière Andrée Chedid. Ses conseils autour de l'écriture lui seront précieux. En 1991, Erik obtient le prix de la ville de Béziers pour Nijinsky, l’ange de papier, portant sur le thème de la folie du célèbre danseur des Ballets russes. Ce prix lui est remis des mains de l’écrivain Marie Rouanet, présidente du jury littéraire à Béziers.  Le texte est illustré par Jean Marais de trois originaux et mis en scène au théâtre rue Thérèse à Paris, par S. Pothier et la Compagnie du Mascaron. 
+Erik Poulet-Reney vit en Bourgogne se passionne pour l’Inde et le Maroc. Il participe à des conférences et rencontres dans des établissements scolaires en France et parfois au Maroc.  Il anime aussi depuis 1999 une chronique littéraire à la radio , et est employé à la bibliothèque municipale d'Auxerre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991 : Nijinsky, l’ange de papier (texte illustré par Jean Marais, préface de Sylvie Germain), 1991, Théâtre, Bec Fin Paris, mise en scène Sylvie Pothier)
 1996 :
@@ -601,10 +617,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Différence dans les romains
-Transparente est un livre parfois commenté dans des revues littéraires[19]. Une des mentions importantes du livre, publié en 2018, apparaît dans une vidéo réalisée pour un concours booktube dans le cadre de la journée mondiale du livre où celle-ci a remporté le 1er prix catégorie collectif[20].  
-Poésie
-Erik Poulet-Reney publie son recueil de poèmes qu'il intitule Fleurs de peau aux éditions Rhubarbe en 2019[21]. 
+          <t>Différence dans les romains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transparente est un livre parfois commenté dans des revues littéraires. Une des mentions importantes du livre, publié en 2018, apparaît dans une vidéo réalisée pour un concours booktube dans le cadre de la journée mondiale du livre où celle-ci a remporté le 1er prix catégorie collectif.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erik_Poulet-Reney</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erik_Poulet-Reney</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Thèmes et genres abordés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erik Poulet-Reney publie son recueil de poèmes qu'il intitule Fleurs de peau aux éditions Rhubarbe en 2019. 
 </t>
         </is>
       </c>
